--- a/알고리즘_4주_완성_상세플랜.xlsx
+++ b/알고리즘_4주_완성_상세플랜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Others\backjoonalgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D189BD-3DF7-441D-A96C-22612A71D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B801FB-6ADE-4EBA-9F6F-58AB34032776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
   <si>
     <t>주차</t>
   </si>
@@ -344,6 +344,102 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/1520</t>
+  </si>
+  <si>
+    <t>5주차</t>
+  </si>
+  <si>
+    <t>그리디 알고리즘</t>
+  </si>
+  <si>
+    <t>BOJ 11047 (동전 0)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11047</t>
+  </si>
+  <si>
+    <t>BOJ 1931 (회의실 배정)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1931</t>
+  </si>
+  <si>
+    <t>유니온 파인드</t>
+  </si>
+  <si>
+    <t>BOJ 1717 (집합의 표현)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1717</t>
+  </si>
+  <si>
+    <t>BOJ 1976 (여행 가자)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1976</t>
+  </si>
+  <si>
+    <t>최소 스패닝 트리</t>
+  </si>
+  <si>
+    <t>BOJ 1197 (최소 스패닝 트리)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1197</t>
+  </si>
+  <si>
+    <t>BOJ 1922 (네트워크 연결)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1922</t>
+  </si>
+  <si>
+    <t>누적합 응용</t>
+  </si>
+  <si>
+    <t>BOJ 11659 (구간 합 구하기)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11659</t>
+  </si>
+  <si>
+    <t>BOJ 2559 (수열)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2559</t>
+  </si>
+  <si>
+    <t>실전 구현 문제</t>
+  </si>
+  <si>
+    <t>BOJ 14425 (문자열 집합)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/14425</t>
+  </si>
+  <si>
+    <t>BOJ 3190 (뱀)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/3190</t>
+  </si>
+  <si>
+    <t>6주차</t>
+  </si>
+  <si>
+    <t>DFS/BFS + 조건 처리</t>
+  </si>
+  <si>
+    <t>BOJ 9466 (텀 프로젝트)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/9466</t>
+  </si>
+  <si>
+    <t>BOJ 10026 (적록색약)</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/10026</t>
   </si>
 </sst>
 </file>
@@ -420,11 +516,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -731,9 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1163,6 +1263,206 @@
       </c>
       <c r="F21" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1208,6 +1508,26 @@
     <hyperlink ref="F20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="F21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
